--- a/medicine/Pharmacie/Chimie_pharmaceutique/Chimie_pharmaceutique.xlsx
+++ b/medicine/Pharmacie/Chimie_pharmaceutique/Chimie_pharmaceutique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La chimie pharmaceutique et la chimie thérapeutique (chimie médicinale ou chimie médicale) sont des disciplines scientifiques placées à l'intersection de la chimie, de la pharmacologie et de la médecine. Elles sont hautement interdisciplinaires et mélangent la chimie organique, la biochimie, la chimie numérique, la pharmacologie, la pharmacognosie, la biologie moléculaire, les statistiques et la chimie physique.
-La chimie pharmaceutique a pour objet la définition et la préparation de composés chimiques, substances actives et excipients, entrant dans la composition des médicaments[1].
-La chimie thérapeutique a pour objet de concevoir des composés biologiquement actifs, d’étudier leur métabolisme et d’interpréter leur mode d’action à l’échelle moléculaire, en se fondant notamment sur des relations entre la structure des corps chimiques et leurs propriétés thérapeutiques[2].
+La chimie pharmaceutique a pour objet la définition et la préparation de composés chimiques, substances actives et excipients, entrant dans la composition des médicaments.
+La chimie thérapeutique a pour objet de concevoir des composés biologiquement actifs, d’étudier leur métabolisme et d’interpréter leur mode d’action à l’échelle moléculaire, en se fondant notamment sur des relations entre la structure des corps chimiques et leurs propriétés thérapeutiques.
 </t>
         </is>
       </c>
